--- a/Project/DataTable/Excel/实体配置表.xlsx
+++ b/Project/DataTable/Excel/实体配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22200" windowHeight="10770"/>
+    <workbookView windowWidth="28140" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="实体配置表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>Id</t>
   </si>
@@ -49,7 +49,7 @@
     <t>(#SKIP)</t>
   </si>
   <si>
-    <t>主角相关实体：10001-19999</t>
+    <t>角色相关实体：10001-19999</t>
   </si>
   <si>
     <t>职业选择剑士模型</t>
@@ -68,6 +68,27 @@
   </si>
   <si>
     <t>Model/Role/Pose_Shooter</t>
+  </si>
+  <si>
+    <t>剑士角色</t>
+  </si>
+  <si>
+    <t>Model/Role/Player_Warrior</t>
+  </si>
+  <si>
+    <t>法师角色</t>
+  </si>
+  <si>
+    <t>Model/Role/Player_Master</t>
+  </si>
+  <si>
+    <t>射手角色</t>
+  </si>
+  <si>
+    <t>Model/Role/Player_Shooter</t>
+  </si>
+  <si>
+    <t>武器相关实体：10001-19999</t>
   </si>
   <si>
     <t>1级大剑</t>
@@ -222,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -636,11 +657,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -664,10 +685,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -762,284 +783,317 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="1" spans="1:3">
+      <c r="A9">
+        <v>10004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10">
+        <v>10005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:3">
+      <c r="A11">
+        <v>10006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>21001</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>21002</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>21003</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>21004</v>
+        <v>21001</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>21005</v>
+        <v>21002</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>21006</v>
+        <v>21003</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>22001</v>
+        <v>21004</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>22002</v>
+        <v>21005</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>22003</v>
+        <v>21006</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>22004</v>
+        <v>22001</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>22005</v>
+        <v>22002</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>22006</v>
+        <v>22003</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>23001</v>
+        <v>22004</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>23002</v>
+        <v>22005</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>23003</v>
+        <v>22006</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>23004</v>
+        <v>23001</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>23005</v>
+        <v>23002</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>23006</v>
+        <v>23003</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>23004</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>31001</v>
+        <v>23005</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>31002</v>
+        <v>23006</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>32001</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>32002</v>
+        <v>31001</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>33001</v>
+        <v>31002</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
+        <v>32001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>32002</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>33001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>33002</v>
       </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Project/DataTable/Excel/实体配置表.xlsx
+++ b/Project/DataTable/Excel/实体配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28140" windowHeight="13050"/>
+    <workbookView windowWidth="21000" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="实体配置表" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>实体编号</t>
   </si>
   <si>
+    <t>所属组</t>
+  </si>
+  <si>
     <t>策划备注</t>
   </si>
   <si>
@@ -52,190 +58,67 @@
     <t>角色相关实体：10001-19999</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
     <t>职业选择剑士模型</t>
   </si>
   <si>
-    <t>Model/Role/Pose_Warrior</t>
+    <t>Model/RoleCreate/Pose_Warrior</t>
   </si>
   <si>
     <t>职业选择法师模型</t>
   </si>
   <si>
-    <t>Model/Role/Pose_Master</t>
+    <t>Model/RoleCreate/Pose_Master</t>
   </si>
   <si>
     <t>职业选择射手模型</t>
   </si>
   <si>
-    <t>Model/Role/Pose_Shooter</t>
-  </si>
-  <si>
-    <t>剑士角色</t>
-  </si>
-  <si>
-    <t>Model/Role/Player_Warrior</t>
-  </si>
-  <si>
-    <t>法师角色</t>
-  </si>
-  <si>
-    <t>Model/Role/Player_Master</t>
-  </si>
-  <si>
-    <t>射手角色</t>
-  </si>
-  <si>
-    <t>Model/Role/Player_Shooter</t>
-  </si>
-  <si>
-    <t>武器相关实体：10001-19999</t>
-  </si>
-  <si>
-    <t>1级大剑</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Sword_01</t>
-  </si>
-  <si>
-    <t>2级大剑</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Sword_02</t>
-  </si>
-  <si>
-    <t>3级大剑</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Sword_03</t>
-  </si>
-  <si>
-    <t>4级大剑</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Sword_04</t>
-  </si>
-  <si>
-    <t>5级大剑</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Sword_05</t>
-  </si>
-  <si>
-    <t>6级大剑</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Sword_06</t>
-  </si>
-  <si>
-    <t>1级法杖</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Staff_01</t>
-  </si>
-  <si>
-    <t>2级法杖</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Staff_02</t>
-  </si>
-  <si>
-    <t>3级法杖</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Staff_03</t>
-  </si>
-  <si>
-    <t>4级法杖</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Staff_04</t>
-  </si>
-  <si>
-    <t>5级法杖</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Staff_05</t>
-  </si>
-  <si>
-    <t>6级法杖</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Staff_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1级弓箭 </t>
-  </si>
-  <si>
-    <t>Model/Weapon/Bow_01</t>
-  </si>
-  <si>
-    <t>2级弓箭</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Bow_02</t>
-  </si>
-  <si>
-    <t>3级弓箭</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Bow_03</t>
-  </si>
-  <si>
-    <t>4级弓箭</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Bow_04</t>
-  </si>
-  <si>
-    <t>5级弓箭</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Bow_05</t>
-  </si>
-  <si>
-    <t>6级弓箭</t>
-  </si>
-  <si>
-    <t>Model/Weapon/Bow_06</t>
-  </si>
-  <si>
-    <t>技能特效实体 30001-39999</t>
+    <t>Model/RoleCreate/Pose_Shooter</t>
+  </si>
+  <si>
+    <t>特效相关实体：10001-19999</t>
+  </si>
+  <si>
+    <t>Effect</t>
   </si>
   <si>
     <t>大剑拖尾1</t>
   </si>
   <si>
-    <t>Effect/Skill/Warrior/TrailOrder_Sword</t>
+    <t>Effect/RoleCreate/Warrior/TrailOrder_Sword</t>
   </si>
   <si>
     <t>砸地板爆炸</t>
   </si>
   <si>
-    <t>Effect/Skill/Warrior/Ground_Explode</t>
+    <t>Effect/RoleCreate/Warrior/Ground_Explode</t>
   </si>
   <si>
     <t>冰爆</t>
   </si>
   <si>
-    <t>Effect/Skill/Master/Ice_Explode</t>
+    <t>Effect/RoleCreate/Master/Ice_Explode</t>
   </si>
   <si>
     <t>冰晶</t>
   </si>
   <si>
-    <t>Effect/Skill/Master/Ice_Crys</t>
+    <t>Effect/RoleCreate/Master/Ice_Crys</t>
   </si>
   <si>
     <t>光圈</t>
   </si>
   <si>
-    <t>Effect/Skill/Shooter/Ice_Circle</t>
+    <t>Effect/RoleCreate/Shooter/Ice_Circle</t>
   </si>
   <si>
     <t>冰凤凰</t>
   </si>
   <si>
-    <t>Effect/Skill/Shooter/Ice_FengHuang</t>
+    <t>Effect/RoleCreate/Shooter/Ice_FengHuang</t>
   </si>
 </sst>
 </file>
@@ -248,7 +131,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -281,6 +164,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -325,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +232,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -685,20 +586,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,60 +610,77 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
-      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>10001</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>10002</v>
       </c>
@@ -769,332 +688,227 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
       <c r="A8">
         <v>10003</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:3">
-      <c r="A9">
-        <v>10004</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:3">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>10005</v>
+        <v>31001</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:4">
       <c r="A11">
-        <v>10006</v>
+        <v>31002</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>32001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>21001</v>
+        <v>32002</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>21002</v>
+        <v>33001</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>21003</v>
+        <v>33002</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>21004</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>21005</v>
-      </c>
-      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>21006</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>22001</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>22002</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>22003</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>22004</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>22005</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>22006</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>23001</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>23002</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>23003</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>23004</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>23005</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>23006</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>31001</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>31002</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>32001</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>32002</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>33001</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>33002</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Project/DataTable/Excel/实体配置表.xlsx
+++ b/Project/DataTable/Excel/实体配置表.xlsx
@@ -55,7 +55,7 @@
     <t>(#SKIP)</t>
   </si>
   <si>
-    <t>人物相关实体：10001-19999</t>
+    <t>职业创建实体</t>
   </si>
   <si>
     <t>Default</t>
@@ -2850,10 +2850,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -3309,8 +3309,8 @@
   <sheetPr/>
   <dimension ref="A1:D919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
